--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-303_運用・保守要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-303_運用・保守要件定義(サンプル＆ガイド).xlsx
@@ -3379,16 +3379,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3586,6 +3576,9 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -4468,6 +4461,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4503,24 +4523,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4558,17 +4560,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12258,9 +12251,7 @@
       <c r="G31" s="66"/>
       <c r="H31" s="63"/>
       <c r="J31" s="67"/>
-      <c r="R31" s="68" t="s">
-        <v>323</v>
-      </c>
+      <c r="R31" s="68"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="63"/>
@@ -12300,20 +12291,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="E39" s="75" t="s">
         <v>324</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>325</v>
       </c>
       <c r="O39" s="72"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S39" s="72"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B40" s="59" t="s">
+        <v>336</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -12788,7 +12783,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -12836,719 +12831,719 @@
       <c r="B9" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122" t="s">
+      <c r="C9" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="123" t="s">
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="123"/>
-      <c r="AG9" s="123"/>
-      <c r="AH9" s="123"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
     </row>
     <row r="10" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B10" s="136">
+      <c r="B10" s="111">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="127" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="121" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="133" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="136"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="137"/>
+      <c r="AH10" s="138"/>
+    </row>
+    <row r="11" spans="1:34" ht="24" customHeight="1">
+      <c r="B11" s="112"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="115" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+    </row>
+    <row r="12" spans="1:34" ht="24" customHeight="1">
+      <c r="B12" s="112"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="115" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="Z12" s="116"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1">
+      <c r="B13" s="112"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="117"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1">
+      <c r="B14" s="112"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="Z14" s="116"/>
+      <c r="AA14" s="117"/>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="116"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="117"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1">
+      <c r="B15" s="112"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="117"/>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="116"/>
+      <c r="AD15" s="116"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="117"/>
+    </row>
+    <row r="16" spans="1:34" ht="24" customHeight="1">
+      <c r="B16" s="113"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="115" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="115" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="115"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="117"/>
+    </row>
+    <row r="17" spans="2:34" ht="24" customHeight="1">
+      <c r="B17" s="114">
+        <v>2</v>
+      </c>
+      <c r="C17" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="130" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="134"/>
-      <c r="AD10" s="134"/>
-      <c r="AE10" s="134"/>
-      <c r="AF10" s="134"/>
-      <c r="AG10" s="134"/>
-      <c r="AH10" s="135"/>
-    </row>
-    <row r="11" spans="1:34" ht="24" customHeight="1">
-      <c r="B11" s="137"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-    </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1">
-      <c r="B12" s="137"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="118"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1">
-      <c r="B13" s="137"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="106" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="108"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="137"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="106" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="108"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="137"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="108"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="138"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="108"/>
-    </row>
-    <row r="17" spans="2:34" ht="24" customHeight="1">
-      <c r="B17" s="139">
-        <v>2</v>
-      </c>
-      <c r="C17" s="109" t="s">
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="115" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="139"/>
+      <c r="AF17" s="139"/>
+      <c r="AG17" s="139"/>
+      <c r="AH17" s="139"/>
+    </row>
+    <row r="18" spans="2:34" ht="24" customHeight="1">
+      <c r="B18" s="112"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="115" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="115"/>
+      <c r="AC18" s="116"/>
+      <c r="AD18" s="116"/>
+      <c r="AE18" s="116"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="117"/>
+    </row>
+    <row r="19" spans="2:34" ht="24" customHeight="1">
+      <c r="B19" s="112"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="115"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="117"/>
+    </row>
+    <row r="20" spans="2:34" ht="24" customHeight="1">
+      <c r="B20" s="113"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="116"/>
+      <c r="AD20" s="116"/>
+      <c r="AE20" s="116"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="117"/>
+    </row>
+    <row r="21" spans="2:34" ht="24" customHeight="1">
+      <c r="B21" s="114">
+        <v>3</v>
+      </c>
+      <c r="C21" s="118" t="s">
         <v>331</v>
       </c>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-    </row>
-    <row r="18" spans="2:34" ht="24" customHeight="1">
-      <c r="B18" s="137"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="108"/>
-    </row>
-    <row r="19" spans="2:34" ht="24" customHeight="1">
-      <c r="B19" s="137"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="106" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="108"/>
-    </row>
-    <row r="20" spans="2:34" ht="24" customHeight="1">
-      <c r="B20" s="138"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="108"/>
-    </row>
-    <row r="21" spans="2:34" ht="24" customHeight="1">
-      <c r="B21" s="139">
-        <v>3</v>
-      </c>
-      <c r="C21" s="109" t="s">
-        <v>332</v>
-      </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="106" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="115" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="106" t="s">
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="108"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="115"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="116"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="117"/>
     </row>
     <row r="22" spans="2:34" ht="24" customHeight="1">
-      <c r="B22" s="137"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="106" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="106" t="s">
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="108"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="115"/>
+      <c r="AC22" s="116"/>
+      <c r="AD22" s="116"/>
+      <c r="AE22" s="116"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="117"/>
     </row>
     <row r="23" spans="2:34" ht="24" customHeight="1">
-      <c r="B23" s="137"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="106" t="s">
+      <c r="B23" s="112"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="106" t="s">
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="108"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="115"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="116"/>
+      <c r="AF23" s="116"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="117"/>
     </row>
     <row r="24" spans="2:34" ht="24" customHeight="1">
-      <c r="B24" s="137"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="106" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="106" t="s">
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="108"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="117"/>
     </row>
     <row r="25" spans="2:34" ht="24" customHeight="1">
-      <c r="B25" s="137"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="106" t="s">
+      <c r="B25" s="112"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="106" t="s">
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="108"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="116"/>
+      <c r="AD25" s="116"/>
+      <c r="AE25" s="116"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="117"/>
     </row>
     <row r="26" spans="2:34" ht="24" customHeight="1">
-      <c r="B26" s="138"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="106" t="s">
+      <c r="B26" s="113"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="115" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="106" t="s">
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="108"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="117"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="116"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="117"/>
     </row>
     <row r="27" spans="2:34" ht="24" customHeight="1">
       <c r="B27" s="78"/>
@@ -13556,7 +13551,7 @@
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
@@ -13625,639 +13620,639 @@
       <c r="B29" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="119" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122" t="s">
+      <c r="C29" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="123" t="s">
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="107"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="108"/>
+      <c r="AB29" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="AC29" s="123"/>
-      <c r="AD29" s="123"/>
-      <c r="AE29" s="123"/>
-      <c r="AF29" s="123"/>
-      <c r="AG29" s="123"/>
-      <c r="AH29" s="123"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="110"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
     </row>
     <row r="30" spans="2:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B30" s="139">
+      <c r="B30" s="114">
         <v>4</v>
       </c>
-      <c r="C30" s="109" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="106" t="s">
+      <c r="C30" s="118" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="115" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="106" t="s">
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="107"/>
-      <c r="AA30" s="108"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="108"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
+      <c r="Q30" s="116"/>
+      <c r="R30" s="116"/>
+      <c r="S30" s="116"/>
+      <c r="T30" s="116"/>
+      <c r="U30" s="116"/>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="116"/>
+      <c r="Y30" s="116"/>
+      <c r="Z30" s="116"/>
+      <c r="AA30" s="117"/>
+      <c r="AB30" s="115"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
+      <c r="AE30" s="116"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="117"/>
     </row>
     <row r="31" spans="2:34" ht="24" customHeight="1">
-      <c r="B31" s="137"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="106" t="s">
+      <c r="B31" s="112"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="106" t="s">
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="107"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="107"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="107"/>
-      <c r="AG31" s="107"/>
-      <c r="AH31" s="108"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="116"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="116"/>
+      <c r="W31" s="116"/>
+      <c r="X31" s="116"/>
+      <c r="Y31" s="116"/>
+      <c r="Z31" s="116"/>
+      <c r="AA31" s="117"/>
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="116"/>
+      <c r="AD31" s="116"/>
+      <c r="AE31" s="116"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="117"/>
     </row>
     <row r="32" spans="2:34" ht="24" customHeight="1">
-      <c r="B32" s="137"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="106" t="s">
+      <c r="B32" s="112"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="106" t="s">
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="108"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
+      <c r="P32" s="116"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="116"/>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="117"/>
+      <c r="AB32" s="115"/>
+      <c r="AC32" s="116"/>
+      <c r="AD32" s="116"/>
+      <c r="AE32" s="116"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="117"/>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
-      <c r="B33" s="137"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="106" t="s">
+      <c r="B33" s="112"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="115" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="106" t="s">
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="108"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="116"/>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="116"/>
+      <c r="Y33" s="116"/>
+      <c r="Z33" s="116"/>
+      <c r="AA33" s="117"/>
+      <c r="AB33" s="115"/>
+      <c r="AC33" s="116"/>
+      <c r="AD33" s="116"/>
+      <c r="AE33" s="116"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="117"/>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
-      <c r="B34" s="137"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="106" t="s">
+      <c r="B34" s="112"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="106" t="s">
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="108"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="108"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="116"/>
+      <c r="R34" s="116"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="116"/>
+      <c r="Y34" s="116"/>
+      <c r="Z34" s="116"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="115"/>
+      <c r="AC34" s="116"/>
+      <c r="AD34" s="116"/>
+      <c r="AE34" s="116"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="117"/>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
-      <c r="B35" s="137"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="106" t="s">
+      <c r="B35" s="112"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="122"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="115" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="106" t="s">
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="107"/>
-      <c r="T35" s="107"/>
-      <c r="U35" s="107"/>
-      <c r="V35" s="107"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="107"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="107"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="107"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="107"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="108"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="116"/>
+      <c r="R35" s="116"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="116"/>
+      <c r="V35" s="116"/>
+      <c r="W35" s="116"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="117"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="116"/>
+      <c r="AD35" s="116"/>
+      <c r="AE35" s="116"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="117"/>
     </row>
     <row r="36" spans="1:34" ht="24" customHeight="1">
-      <c r="B36" s="137"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="106" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="115" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="106" t="s">
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="107"/>
-      <c r="R36" s="107"/>
-      <c r="S36" s="107"/>
-      <c r="T36" s="107"/>
-      <c r="U36" s="107"/>
-      <c r="V36" s="107"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="108"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="116"/>
+      <c r="AD36" s="116"/>
+      <c r="AE36" s="116"/>
+      <c r="AF36" s="116"/>
+      <c r="AG36" s="116"/>
+      <c r="AH36" s="117"/>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="106" t="s">
+      <c r="B37" s="113"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="106" t="s">
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="107"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="108"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="115"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="116"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="117"/>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
-      <c r="B38" s="139">
+      <c r="B38" s="114">
         <v>5</v>
       </c>
-      <c r="C38" s="109" t="s">
-        <v>334</v>
-      </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="106" t="s">
+      <c r="C38" s="118" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="115" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="108"/>
-      <c r="M38" s="106" t="s">
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="107"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="108"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="108"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="116"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="116"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="116"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="115"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="116"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="117"/>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
-      <c r="B39" s="137"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="106" t="s">
+      <c r="B39" s="112"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="106" t="s">
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="N39" s="107"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="107"/>
-      <c r="Q39" s="107"/>
-      <c r="R39" s="107"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="107"/>
-      <c r="U39" s="107"/>
-      <c r="V39" s="107"/>
-      <c r="W39" s="107"/>
-      <c r="X39" s="107"/>
-      <c r="Y39" s="107"/>
-      <c r="Z39" s="107"/>
-      <c r="AA39" s="108"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="107"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="107"/>
-      <c r="AG39" s="107"/>
-      <c r="AH39" s="108"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="116"/>
+      <c r="P39" s="116"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="116"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="116"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="115"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="116"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="117"/>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
-      <c r="B40" s="137"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="106" t="s">
+      <c r="B40" s="112"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="115" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="106" t="s">
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="107"/>
-      <c r="S40" s="107"/>
-      <c r="T40" s="107"/>
-      <c r="U40" s="107"/>
-      <c r="V40" s="107"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="107"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="107"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="107"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="107"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="107"/>
-      <c r="AH40" s="108"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="116"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="116"/>
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="117"/>
+      <c r="AB40" s="115"/>
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="117"/>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
-      <c r="B41" s="137"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="106" t="s">
+      <c r="B41" s="112"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="106" t="s">
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="N41" s="107"/>
-      <c r="O41" s="107"/>
-      <c r="P41" s="107"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="107"/>
-      <c r="V41" s="107"/>
-      <c r="W41" s="107"/>
-      <c r="X41" s="107"/>
-      <c r="Y41" s="107"/>
-      <c r="Z41" s="107"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="106"/>
-      <c r="AC41" s="107"/>
-      <c r="AD41" s="107"/>
-      <c r="AE41" s="107"/>
-      <c r="AF41" s="107"/>
-      <c r="AG41" s="107"/>
-      <c r="AH41" s="108"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="116"/>
+      <c r="R41" s="116"/>
+      <c r="S41" s="116"/>
+      <c r="T41" s="116"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="116"/>
+      <c r="Y41" s="116"/>
+      <c r="Z41" s="116"/>
+      <c r="AA41" s="117"/>
+      <c r="AB41" s="115"/>
+      <c r="AC41" s="116"/>
+      <c r="AD41" s="116"/>
+      <c r="AE41" s="116"/>
+      <c r="AF41" s="116"/>
+      <c r="AG41" s="116"/>
+      <c r="AH41" s="117"/>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
-      <c r="B42" s="137"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="106" t="s">
+      <c r="B42" s="112"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="106" t="s">
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="N42" s="107"/>
-      <c r="O42" s="107"/>
-      <c r="P42" s="107"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="107"/>
-      <c r="W42" s="107"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="107"/>
-      <c r="AA42" s="108"/>
-      <c r="AB42" s="106"/>
-      <c r="AC42" s="107"/>
-      <c r="AD42" s="107"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="107"/>
-      <c r="AG42" s="107"/>
-      <c r="AH42" s="108"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="116"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="116"/>
+      <c r="Z42" s="116"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="115"/>
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="116"/>
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="116"/>
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="117"/>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
-      <c r="B43" s="137"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="106" t="s">
+      <c r="B43" s="112"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="115" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="106" t="s">
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="107"/>
-      <c r="O43" s="107"/>
-      <c r="P43" s="107"/>
-      <c r="Q43" s="107"/>
-      <c r="R43" s="107"/>
-      <c r="S43" s="107"/>
-      <c r="T43" s="107"/>
-      <c r="U43" s="107"/>
-      <c r="V43" s="107"/>
-      <c r="W43" s="107"/>
-      <c r="X43" s="107"/>
-      <c r="Y43" s="107"/>
-      <c r="Z43" s="107"/>
-      <c r="AA43" s="108"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="107"/>
-      <c r="AD43" s="107"/>
-      <c r="AE43" s="107"/>
-      <c r="AF43" s="107"/>
-      <c r="AG43" s="107"/>
-      <c r="AH43" s="108"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="116"/>
+      <c r="U43" s="116"/>
+      <c r="V43" s="116"/>
+      <c r="W43" s="116"/>
+      <c r="X43" s="116"/>
+      <c r="Y43" s="116"/>
+      <c r="Z43" s="116"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="115"/>
+      <c r="AC43" s="116"/>
+      <c r="AD43" s="116"/>
+      <c r="AE43" s="116"/>
+      <c r="AF43" s="116"/>
+      <c r="AG43" s="116"/>
+      <c r="AH43" s="117"/>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="106" t="s">
+      <c r="B44" s="113"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="115" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="106" t="s">
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="N44" s="107"/>
-      <c r="O44" s="107"/>
-      <c r="P44" s="107"/>
-      <c r="Q44" s="107"/>
-      <c r="R44" s="107"/>
-      <c r="S44" s="107"/>
-      <c r="T44" s="107"/>
-      <c r="U44" s="107"/>
-      <c r="V44" s="107"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="107"/>
-      <c r="Y44" s="107"/>
-      <c r="Z44" s="107"/>
-      <c r="AA44" s="108"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="107"/>
-      <c r="AE44" s="107"/>
-      <c r="AF44" s="107"/>
-      <c r="AG44" s="107"/>
-      <c r="AH44" s="108"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="116"/>
+      <c r="R44" s="116"/>
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="117"/>
+      <c r="AB44" s="115"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="116"/>
+      <c r="AE44" s="116"/>
+      <c r="AF44" s="116"/>
+      <c r="AG44" s="116"/>
+      <c r="AH44" s="117"/>
     </row>
     <row r="45" spans="1:34" ht="24" customHeight="1">
       <c r="A45" s="6"/>
@@ -14266,7 +14261,7 @@
       <c r="E45" s="76"/>
       <c r="F45" s="76"/>
       <c r="G45" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H45" s="76"/>
       <c r="I45" s="76"/>
@@ -14365,6 +14360,94 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="M38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="M40:AA40"/>
+    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="C38:F44"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="C30:F37"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="M37:AA37"/>
+    <mergeCell ref="AB37:AH37"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="M32:AA32"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="M33:AA33"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="G43:L43"/>
+    <mergeCell ref="M43:AA43"/>
+    <mergeCell ref="AB43:AH43"/>
+    <mergeCell ref="M39:AA39"/>
+    <mergeCell ref="AB39:AH39"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="C21:F26"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:AA21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:AA24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="M19:AA19"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:AA20"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="C10:F16"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:AA10"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:AA14"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AA15"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="M29:AA29"/>
     <mergeCell ref="AB29:AH29"/>
@@ -14389,94 +14472,6 @@
     <mergeCell ref="C17:F20"/>
     <mergeCell ref="G17:L17"/>
     <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:AA9"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="C10:F16"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:AA10"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:AA14"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AA15"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:AA19"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:AA20"/>
-    <mergeCell ref="C21:F26"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:AA21"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:AA24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="C38:F44"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="C30:F37"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="G37:L37"/>
-    <mergeCell ref="M37:AA37"/>
-    <mergeCell ref="AB37:AH37"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:AA32"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="G33:L33"/>
-    <mergeCell ref="M33:AA33"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="G43:L43"/>
-    <mergeCell ref="M43:AA43"/>
-    <mergeCell ref="AB43:AH43"/>
-    <mergeCell ref="M39:AA39"/>
-    <mergeCell ref="AB39:AH39"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="M38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="M40:AA40"/>
-    <mergeCell ref="AB40:AH40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16505,7 +16500,7 @@
         <v>205</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -17540,7 +17535,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="F73" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G73" s="87"/>
       <c r="H73" s="87"/>
@@ -18173,7 +18168,7 @@
     </row>
     <row r="107" spans="3:26" ht="24" customHeight="1">
       <c r="D107" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="5"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-303_運用・保守要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-303_運用・保守要件定義(サンプル＆ガイド).xlsx
@@ -3379,6 +3379,16 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3576,9 +3586,6 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -4461,33 +4468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4523,6 +4503,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4560,8 +4558,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -12251,7 +12258,9 @@
       <c r="G31" s="66"/>
       <c r="H31" s="63"/>
       <c r="J31" s="67"/>
-      <c r="R31" s="68"/>
+      <c r="R31" s="68" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="63"/>
@@ -12291,24 +12300,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="59" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O39" s="72"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="73"/>
       <c r="R39" s="73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S39" s="72"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="59" t="s">
-        <v>336</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -12783,7 +12788,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -12831,719 +12836,719 @@
       <c r="B9" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="109" t="s">
+      <c r="C9" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="110" t="s">
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
     </row>
     <row r="10" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B10" s="111">
+      <c r="B10" s="136">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="121" t="s">
+      <c r="C10" s="124" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="133" t="s">
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="137"/>
-      <c r="AH10" s="138"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="135"/>
     </row>
     <row r="11" spans="1:34" ht="24" customHeight="1">
-      <c r="B11" s="112"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="115" t="s">
+      <c r="B11" s="137"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="115" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1">
-      <c r="B12" s="112"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="115" t="s">
+      <c r="B12" s="137"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="115" t="s">
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1">
-      <c r="B13" s="112"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="115" t="s">
+      <c r="B13" s="137"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="115" t="s">
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="115"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="117"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="108"/>
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="112"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="115" t="s">
+      <c r="B14" s="137"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="115" t="s">
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="117"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="108"/>
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="112"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="115" t="s">
+      <c r="B15" s="137"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="115" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="117"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="108"/>
     </row>
     <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="113"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="115" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="115" t="s">
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="115"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="117"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="108"/>
     </row>
     <row r="17" spans="2:34" ht="24" customHeight="1">
-      <c r="B17" s="114">
+      <c r="B17" s="139">
         <v>2</v>
       </c>
-      <c r="C17" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="115" t="s">
+      <c r="C17" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="115" t="s">
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
     </row>
     <row r="18" spans="2:34" ht="24" customHeight="1">
-      <c r="B18" s="112"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="115" t="s">
+      <c r="B18" s="137"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="115" t="s">
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="115"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="117"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="108"/>
     </row>
     <row r="19" spans="2:34" ht="24" customHeight="1">
-      <c r="B19" s="112"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="115" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="115" t="s">
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="115"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="116"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="117"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="108"/>
     </row>
     <row r="20" spans="2:34" ht="24" customHeight="1">
-      <c r="B20" s="113"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="115" t="s">
+      <c r="B20" s="138"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="115" t="s">
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="117"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="108"/>
     </row>
     <row r="21" spans="2:34" ht="24" customHeight="1">
-      <c r="B21" s="114">
+      <c r="B21" s="139">
         <v>3</v>
       </c>
-      <c r="C21" s="118" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="115" t="s">
+      <c r="C21" s="109" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="115" t="s">
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="117"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="108"/>
     </row>
     <row r="22" spans="2:34" ht="24" customHeight="1">
-      <c r="B22" s="112"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="115" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="115" t="s">
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="115"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="116"/>
-      <c r="AE22" s="116"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="117"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="108"/>
     </row>
     <row r="23" spans="2:34" ht="24" customHeight="1">
-      <c r="B23" s="112"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="115" t="s">
+      <c r="B23" s="137"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="115" t="s">
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="115"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="117"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="108"/>
     </row>
     <row r="24" spans="2:34" ht="24" customHeight="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="115" t="s">
+      <c r="B24" s="137"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="115" t="s">
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="115"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="117"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="108"/>
     </row>
     <row r="25" spans="2:34" ht="24" customHeight="1">
-      <c r="B25" s="112"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="115" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="115" t="s">
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="115"/>
-      <c r="AC25" s="116"/>
-      <c r="AD25" s="116"/>
-      <c r="AE25" s="116"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="117"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="108"/>
     </row>
     <row r="26" spans="2:34" ht="24" customHeight="1">
-      <c r="B26" s="113"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="115" t="s">
+      <c r="B26" s="138"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="115" t="s">
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="115"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="116"/>
-      <c r="AE26" s="116"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="117"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="108"/>
     </row>
     <row r="27" spans="2:34" ht="24" customHeight="1">
       <c r="B27" s="78"/>
@@ -13551,7 +13556,7 @@
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
@@ -13620,639 +13625,639 @@
       <c r="B29" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="106" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109" t="s">
+      <c r="C29" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="110" t="s">
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="123"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
     </row>
     <row r="30" spans="2:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B30" s="114">
+      <c r="B30" s="139">
         <v>4</v>
       </c>
-      <c r="C30" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="115" t="s">
+      <c r="C30" s="109" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="115" t="s">
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="117"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="108"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="108"/>
     </row>
     <row r="31" spans="2:34" ht="24" customHeight="1">
-      <c r="B31" s="112"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="115" t="s">
+      <c r="B31" s="137"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="115" t="s">
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
-      <c r="AE31" s="116"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="117"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="107"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="107"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="108"/>
     </row>
     <row r="32" spans="2:34" ht="24" customHeight="1">
-      <c r="B32" s="112"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="115" t="s">
+      <c r="B32" s="137"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="115" t="s">
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="115"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="117"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="107"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="108"/>
     </row>
     <row r="33" spans="1:34" ht="24" customHeight="1">
-      <c r="B33" s="112"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="115" t="s">
+      <c r="B33" s="137"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="115" t="s">
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="115"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="116"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="117"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="107"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="108"/>
     </row>
     <row r="34" spans="1:34" ht="24" customHeight="1">
-      <c r="B34" s="112"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="115" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="115" t="s">
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="115"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="116"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="117"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="107"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="108"/>
     </row>
     <row r="35" spans="1:34" ht="24" customHeight="1">
-      <c r="B35" s="112"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="115" t="s">
+      <c r="B35" s="137"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="115" t="s">
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="116"/>
-      <c r="AD35" s="116"/>
-      <c r="AE35" s="116"/>
-      <c r="AF35" s="116"/>
-      <c r="AG35" s="116"/>
-      <c r="AH35" s="117"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="108"/>
     </row>
     <row r="36" spans="1:34" ht="24" customHeight="1">
-      <c r="B36" s="112"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="115" t="s">
+      <c r="B36" s="137"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="115" t="s">
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="117"/>
-      <c r="AB36" s="115"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="116"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="116"/>
-      <c r="AG36" s="116"/>
-      <c r="AH36" s="117"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="107"/>
+      <c r="AF36" s="107"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="108"/>
     </row>
     <row r="37" spans="1:34" ht="24" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="115" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="115" t="s">
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="115"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
-      <c r="AH37" s="117"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="107"/>
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="108"/>
     </row>
     <row r="38" spans="1:34" ht="24" customHeight="1">
-      <c r="B38" s="114">
+      <c r="B38" s="139">
         <v>5</v>
       </c>
-      <c r="C38" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="115" t="s">
+      <c r="C38" s="109" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="115" t="s">
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="115"/>
-      <c r="AC38" s="116"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="117"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="107"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="107"/>
+      <c r="AE38" s="107"/>
+      <c r="AF38" s="107"/>
+      <c r="AG38" s="107"/>
+      <c r="AH38" s="108"/>
     </row>
     <row r="39" spans="1:34" ht="24" customHeight="1">
-      <c r="B39" s="112"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="115" t="s">
+      <c r="B39" s="137"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="115" t="s">
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="115"/>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="116"/>
-      <c r="AH39" s="117"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="108"/>
     </row>
     <row r="40" spans="1:34" ht="24" customHeight="1">
-      <c r="B40" s="112"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="115" t="s">
+      <c r="B40" s="137"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="115" t="s">
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="116"/>
-      <c r="AH40" s="117"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="106"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="108"/>
     </row>
     <row r="41" spans="1:34" ht="24" customHeight="1">
-      <c r="B41" s="112"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="115" t="s">
+      <c r="B41" s="137"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="115" t="s">
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="115"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="116"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="116"/>
-      <c r="AH41" s="117"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="108"/>
     </row>
     <row r="42" spans="1:34" ht="24" customHeight="1">
-      <c r="B42" s="112"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="115" t="s">
+      <c r="B42" s="137"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="115" t="s">
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="115"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="116"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="117"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="108"/>
     </row>
     <row r="43" spans="1:34" ht="24" customHeight="1">
-      <c r="B43" s="112"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="115" t="s">
+      <c r="B43" s="137"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="115" t="s">
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
-      <c r="Y43" s="116"/>
-      <c r="Z43" s="116"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="115"/>
-      <c r="AC43" s="116"/>
-      <c r="AD43" s="116"/>
-      <c r="AE43" s="116"/>
-      <c r="AF43" s="116"/>
-      <c r="AG43" s="116"/>
-      <c r="AH43" s="117"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="108"/>
     </row>
     <row r="44" spans="1:34" ht="24" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="115" t="s">
+      <c r="B44" s="138"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="115" t="s">
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="117"/>
-      <c r="AB44" s="115"/>
-      <c r="AC44" s="116"/>
-      <c r="AD44" s="116"/>
-      <c r="AE44" s="116"/>
-      <c r="AF44" s="116"/>
-      <c r="AG44" s="116"/>
-      <c r="AH44" s="117"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="108"/>
     </row>
     <row r="45" spans="1:34" ht="24" customHeight="1">
       <c r="A45" s="6"/>
@@ -14261,7 +14266,7 @@
       <c r="E45" s="76"/>
       <c r="F45" s="76"/>
       <c r="G45" s="42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H45" s="76"/>
       <c r="I45" s="76"/>
@@ -14360,20 +14365,80 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="M38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="M40:AA40"/>
-    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="M29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:AA25"/>
+    <mergeCell ref="AB25:AH25"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="M36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:AA34"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="M35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="C17:F20"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="C10:F16"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:AA10"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:AA14"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AA15"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="M19:AA19"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:AA20"/>
+    <mergeCell ref="C21:F26"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:AA21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:AA24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
     <mergeCell ref="C38:F44"/>
     <mergeCell ref="G38:L38"/>
     <mergeCell ref="C30:F37"/>
@@ -14398,80 +14463,20 @@
     <mergeCell ref="M39:AA39"/>
     <mergeCell ref="AB39:AH39"/>
     <mergeCell ref="G40:L40"/>
-    <mergeCell ref="C21:F26"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:AA21"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:AA24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:AA19"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:AA20"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:AA9"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="C10:F16"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:AA10"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:AA14"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AA15"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="M29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:AA25"/>
-    <mergeCell ref="AB25:AH25"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="M36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:AA34"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="M35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="C17:F20"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="M38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="M40:AA40"/>
+    <mergeCell ref="AB40:AH40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16500,7 +16505,7 @@
         <v>205</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -17535,7 +17540,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="F73" s="51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G73" s="87"/>
       <c r="H73" s="87"/>
@@ -18168,7 +18173,7 @@
     </row>
     <row r="107" spans="3:26" ht="24" customHeight="1">
       <c r="D107" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="5"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-303_運用・保守要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-303_運用・保守要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745E62B0-BD1B-4C98-9DED-959B13A8E840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="8100"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="333">
   <si>
     <t>５．表記例</t>
     <rPh sb="2" eb="4">
@@ -3377,17 +3378,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -3577,15 +3567,12 @@
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -4461,33 +4448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4523,6 +4483,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4560,8 +4538,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4621,7 +4608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4719,52 +4712,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4785,7 +4732,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4844,7 +4797,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4907,7 +4866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4966,7 +4931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5029,7 +5000,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5079,7 +5056,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5138,7 +5121,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5197,7 +5186,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5263,7 +5258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5329,7 +5330,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5409,7 +5416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5472,7 +5485,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5545,7 +5564,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5598,7 +5623,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="カギ線コネクタ 15"/>
+        <xdr:cNvPr id="16" name="カギ線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5651,7 +5682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5704,7 +5741,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5757,7 +5800,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5810,7 +5859,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="カギ線コネクタ 35"/>
+        <xdr:cNvPr id="36" name="カギ線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5863,7 +5918,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="カギ線コネクタ 37"/>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5916,7 +5977,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -5969,7 +6036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -6027,7 +6100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="直線矢印コネクタ 128"/>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6075,7 +6154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6143,7 +6228,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6247,7 +6338,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6351,7 +6448,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6431,7 +6534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フローチャート : 判断 11"/>
+        <xdr:cNvPr id="6" name="フローチャート : 判断 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6488,7 +6597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6554,7 +6669,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -6600,7 +6721,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -6646,7 +6773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="24" idx="1"/>
@@ -6692,7 +6825,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -6738,7 +6877,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -6781,7 +6926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6839,7 +6990,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="カギ線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="カギ線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="6" idx="1"/>
@@ -6888,7 +7045,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="フローチャート : 判断 36"/>
+        <xdr:cNvPr id="15" name="フローチャート : 判断 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6945,7 +7108,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7121,7 +7290,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7278,7 +7453,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -7324,7 +7505,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="16" idx="1"/>
@@ -7370,7 +7557,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="17" idx="1"/>
@@ -7416,7 +7609,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="2"/>
           <a:endCxn id="17" idx="2"/>
@@ -7464,7 +7663,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7544,7 +7749,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7605,7 +7816,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -7657,7 +7874,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7735,7 +7958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7802,7 +8031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7869,7 +8104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7936,7 +8177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8003,7 +8250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="ひし形 42"/>
+        <xdr:cNvPr id="43" name="ひし形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8064,7 +8317,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="角丸四角形 43"/>
+        <xdr:cNvPr id="44" name="角丸四角形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8128,7 +8387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="ひし形 44"/>
+        <xdr:cNvPr id="45" name="ひし形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8189,7 +8454,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8253,7 +8524,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="角丸四角形 46"/>
+        <xdr:cNvPr id="47" name="角丸四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8317,7 +8594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8381,7 +8664,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 48"/>
+        <xdr:cNvPr id="49" name="角丸四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8445,7 +8734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8517,7 +8812,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8581,7 +8882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="角丸四角形 51"/>
+        <xdr:cNvPr id="52" name="角丸四角形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8642,7 +8949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8701,7 +9014,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvPr id="54" name="角丸四角形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8760,7 +9079,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54"/>
+        <xdr:cNvPr id="55" name="角丸四角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8819,7 +9144,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 96" descr="Database Sm"/>
+        <xdr:cNvPr id="57" name="Picture 96" descr="Database Sm">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8887,7 +9218,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 96" descr="Database Sm"/>
+        <xdr:cNvPr id="58" name="Picture 96" descr="Database Sm">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -8955,7 +9292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9003,7 +9346,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9051,7 +9400,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="直線矢印コネクタ 67"/>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9099,7 +9454,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="46" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -9149,7 +9510,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="カギ線コネクタ 78"/>
+        <xdr:cNvPr id="79" name="カギ線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="51" idx="3"/>
@@ -9201,7 +9568,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="カギ線コネクタ 84"/>
+        <xdr:cNvPr id="85" name="カギ線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9248,7 +9621,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="1"/>
           <a:endCxn id="49" idx="3"/>
@@ -9298,7 +9677,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線矢印コネクタ 90"/>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="1"/>
           <a:endCxn id="54" idx="3"/>
@@ -9348,7 +9733,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="直線矢印コネクタ 95"/>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="1"/>
           <a:endCxn id="53" idx="3"/>
@@ -9398,7 +9789,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="1"/>
           <a:endCxn id="55" idx="3"/>
@@ -9448,7 +9845,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -9497,7 +9900,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="カギ線コネクタ 106"/>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="53" idx="3"/>
           <a:endCxn id="43" idx="1"/>
@@ -9545,7 +9954,13 @@
     <xdr:ext cx="981075" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9614,7 +10029,13 @@
     <xdr:ext cx="981075" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="テキスト ボックス 72"/>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9684,7 +10105,13 @@
     <xdr:ext cx="981075" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="テキスト ボックス 77"/>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9754,7 +10181,13 @@
     <xdr:ext cx="981075" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="テキスト ボックス 79"/>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9824,7 +10257,13 @@
     <xdr:ext cx="981075" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="テキスト ボックス 80"/>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9894,7 +10333,13 @@
     <xdr:ext cx="466725" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9960,7 +10405,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="カギ線コネクタ 85"/>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="47" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -10009,7 +10460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="ひし形 91"/>
+        <xdr:cNvPr id="92" name="ひし形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10065,7 +10522,13 @@
     <xdr:ext cx="866775" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="テキスト ボックス 89"/>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10135,7 +10598,13 @@
     <xdr:ext cx="866775" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10210,7 +10679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="角丸四角形 112"/>
+        <xdr:cNvPr id="113" name="角丸四角形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10274,7 +10749,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="49" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -10319,7 +10800,13 @@
     <xdr:ext cx="466725" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="テキスト ボックス 117"/>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10385,7 +10872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -10435,7 +10928,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="1"/>
           <a:endCxn id="46" idx="3"/>
@@ -10486,7 +10985,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="カギ線コネクタ 122"/>
+        <xdr:cNvPr id="123" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10536,7 +11041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10579,7 +11090,13 @@
     <xdr:ext cx="466725" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10640,7 +11157,13 @@
     <xdr:ext cx="466725" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+        <xdr:cNvPr id="136" name="テキスト ボックス 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10701,7 +11224,13 @@
     <xdr:ext cx="666123" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10771,7 +11300,13 @@
     <xdr:ext cx="666123" cy="242374"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10846,7 +11381,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Text Box 1"/>
+        <xdr:cNvPr id="87" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11045,7 +11586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Text Box 1"/>
+        <xdr:cNvPr id="89" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11242,7 +11789,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Text Box 1"/>
+        <xdr:cNvPr id="94" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11375,7 +11928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Text Box 1"/>
+        <xdr:cNvPr id="95" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11508,7 +12067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Text Box 1"/>
+        <xdr:cNvPr id="97" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11661,7 +12226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="Text Box 1"/>
+        <xdr:cNvPr id="99" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -11794,7 +12365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11838,7 +12415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -11871,7 +12454,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11913,7 +12496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11946,9 +12529,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11981,6 +12581,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12156,7 +12773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12164,42 +12781,42 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="60"/>
       <c r="C1" s="61"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:19" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="63"/>
       <c r="H22" s="63"/>
     </row>
-    <row r="23" spans="6:19" ht="17.25" customHeight="1">
+    <row r="23" spans="6:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="63"/>
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
@@ -12208,12 +12825,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="6:19" ht="13.5" customHeight="1">
+    <row r="24" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="63"/>
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
     </row>
-    <row r="25" spans="6:19" ht="18" customHeight="1">
+    <row r="25" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="63"/>
       <c r="G25" s="63"/>
       <c r="H25" s="63"/>
@@ -12222,38 +12839,38 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="6:19" ht="13.5" customHeight="1">
+    <row r="26" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="63"/>
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
     </row>
-    <row r="27" spans="6:19" ht="13.5" customHeight="1">
+    <row r="27" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
       <c r="H27" s="63"/>
     </row>
-    <row r="28" spans="6:19" ht="13.5" customHeight="1">
+    <row r="28" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="63"/>
       <c r="H28" s="63"/>
     </row>
-    <row r="29" spans="6:19" ht="13.5" customHeight="1">
+    <row r="29" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="63"/>
       <c r="G29" s="66"/>
       <c r="H29" s="63"/>
     </row>
-    <row r="30" spans="6:19" ht="13.5" customHeight="1">
+    <row r="30" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="63"/>
       <c r="G30" s="66"/>
       <c r="H30" s="63"/>
     </row>
-    <row r="31" spans="6:19" ht="21" customHeight="1">
+    <row r="31" spans="6:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="63"/>
       <c r="G31" s="66"/>
       <c r="H31" s="63"/>
       <c r="J31" s="67"/>
       <c r="R31" s="68"/>
     </row>
-    <row r="32" spans="6:19" ht="13.5" customHeight="1">
+    <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="63"/>
       <c r="H32" s="63"/>
       <c r="L32" s="69"/>
@@ -12265,531 +12882,517 @@
       <c r="R32" s="71"/>
       <c r="S32" s="72"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="69"/>
       <c r="P36" s="69"/>
       <c r="Q36" s="72"/>
       <c r="R36" s="72"/>
       <c r="S36" s="72"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="73"/>
       <c r="P37" s="72"/>
       <c r="Q37" s="73"/>
       <c r="R37" s="72"/>
       <c r="S37" s="74"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="73"/>
       <c r="P38" s="72"/>
       <c r="Q38" s="73"/>
       <c r="R38" s="72"/>
       <c r="S38" s="73"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B39" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>324</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="75"/>
       <c r="O39" s="72"/>
       <c r="P39" s="72"/>
       <c r="Q39" s="73"/>
-      <c r="R39" s="73" t="s">
-        <v>325</v>
-      </c>
+      <c r="R39" s="73"/>
       <c r="S39" s="72"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="59" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12797,761 +13400,761 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12" customHeight="1">
+    <row r="1" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1">
+    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="12" customHeight="1">
+    <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1">
+    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="19" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="12" customHeight="1">
+    <row r="7" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="24" customHeight="1" thickBot="1">
+    <row r="9" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="109" t="s">
+      <c r="C9" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="110" t="s">
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-    </row>
-    <row r="10" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B10" s="111">
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+    </row>
+    <row r="10" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="136">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="121" t="s">
+      <c r="C10" s="124" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="133" t="s">
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="134"/>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="134"/>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="137"/>
-      <c r="AD10" s="137"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="137"/>
-      <c r="AH10" s="138"/>
-    </row>
-    <row r="11" spans="1:34" ht="24" customHeight="1">
-      <c r="B11" s="112"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="115" t="s">
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="131"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="134"/>
+      <c r="AD10" s="134"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="135"/>
+    </row>
+    <row r="11" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="137"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="115" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="139"/>
-      <c r="AC11" s="139"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="139"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
-    </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1">
-      <c r="B12" s="112"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="115" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="118"/>
+      <c r="AF11" s="118"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="118"/>
+    </row>
+    <row r="12" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="137"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="115" t="s">
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="117"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1">
-      <c r="B13" s="112"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="115" t="s">
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="118"/>
+      <c r="AC12" s="118"/>
+      <c r="AD12" s="118"/>
+      <c r="AE12" s="118"/>
+      <c r="AF12" s="118"/>
+      <c r="AG12" s="118"/>
+      <c r="AH12" s="118"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="137"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="115" t="s">
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="117"/>
-      <c r="AB13" s="115"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="116"/>
-      <c r="AE13" s="116"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="117"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="112"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="115" t="s">
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="108"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="137"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="115" t="s">
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="117"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="117"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="112"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="115" t="s">
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="108"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="137"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="106" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="115" t="s">
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="116"/>
-      <c r="AA15" s="117"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="116"/>
-      <c r="AD15" s="116"/>
-      <c r="AE15" s="116"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="117"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="113"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="115" t="s">
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="108"/>
+    </row>
+    <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="138"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="115" t="s">
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="117"/>
-      <c r="AB16" s="115"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="117"/>
-    </row>
-    <row r="17" spans="2:34" ht="24" customHeight="1">
-      <c r="B17" s="114">
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="108"/>
+    </row>
+    <row r="17" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="139">
         <v>2</v>
       </c>
-      <c r="C17" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="115" t="s">
+      <c r="C17" s="109" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="115" t="s">
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="117"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-    </row>
-    <row r="18" spans="2:34" ht="24" customHeight="1">
-      <c r="B18" s="112"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="115" t="s">
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="118"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="118"/>
+      <c r="AG17" s="118"/>
+      <c r="AH17" s="118"/>
+    </row>
+    <row r="18" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="137"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="115" t="s">
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="115"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="117"/>
-    </row>
-    <row r="19" spans="2:34" ht="24" customHeight="1">
-      <c r="B19" s="112"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="115" t="s">
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="108"/>
+    </row>
+    <row r="19" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="137"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="115" t="s">
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="115"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="116"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="117"/>
-    </row>
-    <row r="20" spans="2:34" ht="24" customHeight="1">
-      <c r="B20" s="113"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="115" t="s">
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="108"/>
+    </row>
+    <row r="20" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="138"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="115" t="s">
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="117"/>
-    </row>
-    <row r="21" spans="2:34" ht="24" customHeight="1">
-      <c r="B21" s="114">
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="108"/>
+    </row>
+    <row r="21" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="139">
         <v>3</v>
       </c>
-      <c r="C21" s="118" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="115" t="s">
+      <c r="C21" s="109" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="115" t="s">
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="115"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="117"/>
-    </row>
-    <row r="22" spans="2:34" ht="24" customHeight="1">
-      <c r="B22" s="112"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="115" t="s">
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="108"/>
+    </row>
+    <row r="22" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="137"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="106" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="115" t="s">
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="115"/>
-      <c r="AC22" s="116"/>
-      <c r="AD22" s="116"/>
-      <c r="AE22" s="116"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="117"/>
-    </row>
-    <row r="23" spans="2:34" ht="24" customHeight="1">
-      <c r="B23" s="112"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="115" t="s">
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="107"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="108"/>
+    </row>
+    <row r="23" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="137"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="115" t="s">
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="117"/>
-      <c r="AB23" s="115"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="117"/>
-    </row>
-    <row r="24" spans="2:34" ht="24" customHeight="1">
-      <c r="B24" s="112"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="115" t="s">
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="108"/>
+    </row>
+    <row r="24" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="137"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="115" t="s">
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="116"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="117"/>
-      <c r="AB24" s="115"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="117"/>
-    </row>
-    <row r="25" spans="2:34" ht="24" customHeight="1">
-      <c r="B25" s="112"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="115" t="s">
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="108"/>
+    </row>
+    <row r="25" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="137"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="115" t="s">
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
-      <c r="T25" s="116"/>
-      <c r="U25" s="116"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="116"/>
-      <c r="Y25" s="116"/>
-      <c r="Z25" s="116"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="115"/>
-      <c r="AC25" s="116"/>
-      <c r="AD25" s="116"/>
-      <c r="AE25" s="116"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="117"/>
-    </row>
-    <row r="26" spans="2:34" ht="24" customHeight="1">
-      <c r="B26" s="113"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="115" t="s">
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="107"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="107"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="108"/>
+    </row>
+    <row r="26" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="138"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="115" t="s">
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
-      <c r="U26" s="116"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="115"/>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="116"/>
-      <c r="AE26" s="116"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="117"/>
-    </row>
-    <row r="27" spans="2:34" ht="24" customHeight="1">
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="107"/>
+      <c r="W26" s="107"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="107"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="108"/>
+    </row>
+    <row r="27" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="78"/>
       <c r="D27" s="76"/>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
       <c r="G27" s="42" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
@@ -13581,7 +14184,7 @@
       <c r="AG27" s="76"/>
       <c r="AH27" s="76"/>
     </row>
-    <row r="28" spans="2:34" ht="24" customHeight="1">
+    <row r="28" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78"/>
       <c r="C28" s="76"/>
       <c r="D28" s="76"/>
@@ -13616,652 +14219,652 @@
       <c r="AG28" s="76"/>
       <c r="AH28" s="76"/>
     </row>
-    <row r="29" spans="2:34" ht="24" customHeight="1" thickBot="1">
+    <row r="29" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="106" t="s">
-        <v>334</v>
-      </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109" t="s">
+      <c r="C29" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="110" t="s">
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="120"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="120"/>
+      <c r="S29" s="120"/>
+      <c r="T29" s="120"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="120"/>
+      <c r="W29" s="120"/>
+      <c r="X29" s="120"/>
+      <c r="Y29" s="120"/>
+      <c r="Z29" s="120"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="110"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="110"/>
-      <c r="AG29" s="110"/>
-      <c r="AH29" s="110"/>
-    </row>
-    <row r="30" spans="2:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B30" s="114">
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="123"/>
+      <c r="AE29" s="123"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="123"/>
+      <c r="AH29" s="123"/>
+    </row>
+    <row r="30" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="139">
         <v>4</v>
       </c>
-      <c r="C30" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="115" t="s">
+      <c r="C30" s="109" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="115" t="s">
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="115"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="117"/>
-    </row>
-    <row r="31" spans="2:34" ht="24" customHeight="1">
-      <c r="B31" s="112"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="115" t="s">
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="108"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="108"/>
+    </row>
+    <row r="31" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="137"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="106" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
-      <c r="M31" s="115" t="s">
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
-      <c r="AE31" s="116"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="117"/>
-    </row>
-    <row r="32" spans="2:34" ht="24" customHeight="1">
-      <c r="B32" s="112"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="115" t="s">
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="107"/>
+      <c r="W31" s="107"/>
+      <c r="X31" s="107"/>
+      <c r="Y31" s="107"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="108"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="107"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="107"/>
+      <c r="AF31" s="107"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="108"/>
+    </row>
+    <row r="32" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="137"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="115" t="s">
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="115"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="117"/>
-    </row>
-    <row r="33" spans="1:34" ht="24" customHeight="1">
-      <c r="B33" s="112"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="115" t="s">
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
+      <c r="U32" s="107"/>
+      <c r="V32" s="107"/>
+      <c r="W32" s="107"/>
+      <c r="X32" s="107"/>
+      <c r="Y32" s="107"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="108"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="107"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="107"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="108"/>
+    </row>
+    <row r="33" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="137"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="115" t="s">
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="115"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="116"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="117"/>
-    </row>
-    <row r="34" spans="1:34" ht="24" customHeight="1">
-      <c r="B34" s="112"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="115" t="s">
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="107"/>
+      <c r="W33" s="107"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="108"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="107"/>
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="107"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="108"/>
+    </row>
+    <row r="34" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="137"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="115" t="s">
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="115"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="116"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="117"/>
-    </row>
-    <row r="35" spans="1:34" ht="24" customHeight="1">
-      <c r="B35" s="112"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="115" t="s">
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="107"/>
+      <c r="W34" s="107"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="108"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="107"/>
+      <c r="AD34" s="107"/>
+      <c r="AE34" s="107"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="108"/>
+    </row>
+    <row r="35" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="137"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="115" t="s">
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="116"/>
-      <c r="AD35" s="116"/>
-      <c r="AE35" s="116"/>
-      <c r="AF35" s="116"/>
-      <c r="AG35" s="116"/>
-      <c r="AH35" s="117"/>
-    </row>
-    <row r="36" spans="1:34" ht="24" customHeight="1">
-      <c r="B36" s="112"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="115" t="s">
+      <c r="N35" s="107"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
+      <c r="U35" s="107"/>
+      <c r="V35" s="107"/>
+      <c r="W35" s="107"/>
+      <c r="X35" s="107"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="107"/>
+      <c r="AA35" s="108"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="107"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="108"/>
+    </row>
+    <row r="36" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="137"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
-      <c r="M36" s="115" t="s">
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="117"/>
-      <c r="AB36" s="115"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="116"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="116"/>
-      <c r="AG36" s="116"/>
-      <c r="AH36" s="117"/>
-    </row>
-    <row r="37" spans="1:34" ht="24" customHeight="1">
+      <c r="N36" s="107"/>
+      <c r="O36" s="107"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
+      <c r="U36" s="107"/>
+      <c r="V36" s="107"/>
+      <c r="W36" s="107"/>
+      <c r="X36" s="107"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="107"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="107"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="107"/>
+      <c r="AF36" s="107"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="108"/>
+    </row>
+    <row r="37" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="115" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
-      <c r="M37" s="115" t="s">
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="115"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
-      <c r="AH37" s="117"/>
-    </row>
-    <row r="38" spans="1:34" ht="24" customHeight="1">
-      <c r="B38" s="114">
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="107"/>
+      <c r="W37" s="107"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="107"/>
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="108"/>
+    </row>
+    <row r="38" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="139">
         <v>5</v>
       </c>
-      <c r="C38" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="115" t="s">
+      <c r="C38" s="109" t="s">
+        <v>330</v>
+      </c>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="106" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="115" t="s">
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="115"/>
-      <c r="AC38" s="116"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="117"/>
-    </row>
-    <row r="39" spans="1:34" ht="24" customHeight="1">
-      <c r="B39" s="112"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="115" t="s">
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="107"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="107"/>
+      <c r="AE38" s="107"/>
+      <c r="AF38" s="107"/>
+      <c r="AG38" s="107"/>
+      <c r="AH38" s="108"/>
+    </row>
+    <row r="39" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="137"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="106" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="115" t="s">
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="116"/>
-      <c r="T39" s="116"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="115"/>
-      <c r="AC39" s="116"/>
-      <c r="AD39" s="116"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="116"/>
-      <c r="AG39" s="116"/>
-      <c r="AH39" s="117"/>
-    </row>
-    <row r="40" spans="1:34" ht="24" customHeight="1">
-      <c r="B40" s="112"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="115" t="s">
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
+      <c r="W39" s="107"/>
+      <c r="X39" s="107"/>
+      <c r="Y39" s="107"/>
+      <c r="Z39" s="107"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="108"/>
+    </row>
+    <row r="40" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="137"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="106" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="115" t="s">
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="116"/>
-      <c r="T40" s="116"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="116"/>
-      <c r="AD40" s="116"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="116"/>
-      <c r="AH40" s="117"/>
-    </row>
-    <row r="41" spans="1:34" ht="24" customHeight="1">
-      <c r="B41" s="112"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="115" t="s">
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="108"/>
+      <c r="AB40" s="106"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="108"/>
+    </row>
+    <row r="41" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="137"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="115" t="s">
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="116"/>
-      <c r="T41" s="116"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="116"/>
-      <c r="Y41" s="116"/>
-      <c r="Z41" s="116"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="115"/>
-      <c r="AC41" s="116"/>
-      <c r="AD41" s="116"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="116"/>
-      <c r="AH41" s="117"/>
-    </row>
-    <row r="42" spans="1:34" ht="24" customHeight="1">
-      <c r="B42" s="112"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="115" t="s">
+      <c r="N41" s="107"/>
+      <c r="O41" s="107"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="107"/>
+      <c r="W41" s="107"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="107"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="108"/>
+    </row>
+    <row r="42" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="137"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="117"/>
-      <c r="M42" s="115" t="s">
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="116"/>
-      <c r="T42" s="116"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="116"/>
-      <c r="Z42" s="116"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="115"/>
-      <c r="AC42" s="116"/>
-      <c r="AD42" s="116"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="117"/>
-    </row>
-    <row r="43" spans="1:34" ht="24" customHeight="1">
-      <c r="B43" s="112"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="115" t="s">
+      <c r="N42" s="107"/>
+      <c r="O42" s="107"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="107"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="108"/>
+    </row>
+    <row r="43" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="137"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="115" t="s">
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="116"/>
-      <c r="T43" s="116"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="116"/>
-      <c r="Y43" s="116"/>
-      <c r="Z43" s="116"/>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="115"/>
-      <c r="AC43" s="116"/>
-      <c r="AD43" s="116"/>
-      <c r="AE43" s="116"/>
-      <c r="AF43" s="116"/>
-      <c r="AG43" s="116"/>
-      <c r="AH43" s="117"/>
-    </row>
-    <row r="44" spans="1:34" ht="24" customHeight="1">
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="107"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107"/>
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107"/>
+      <c r="AH43" s="108"/>
+    </row>
+    <row r="44" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="115" t="s">
+      <c r="B44" s="138"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117"/>
-      <c r="M44" s="115" t="s">
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="N44" s="116"/>
-      <c r="O44" s="116"/>
-      <c r="P44" s="116"/>
-      <c r="Q44" s="116"/>
-      <c r="R44" s="116"/>
-      <c r="S44" s="116"/>
-      <c r="T44" s="116"/>
-      <c r="U44" s="116"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="116"/>
-      <c r="Z44" s="116"/>
-      <c r="AA44" s="117"/>
-      <c r="AB44" s="115"/>
-      <c r="AC44" s="116"/>
-      <c r="AD44" s="116"/>
-      <c r="AE44" s="116"/>
-      <c r="AF44" s="116"/>
-      <c r="AG44" s="116"/>
-      <c r="AH44" s="117"/>
-    </row>
-    <row r="45" spans="1:34" ht="24" customHeight="1">
+      <c r="N44" s="107"/>
+      <c r="O44" s="107"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="108"/>
+    </row>
+    <row r="45" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="42"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
       <c r="F45" s="76"/>
       <c r="G45" s="42" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H45" s="76"/>
       <c r="I45" s="76"/>
@@ -14291,18 +14894,18 @@
       <c r="AG45" s="43"/>
       <c r="AH45" s="43"/>
     </row>
-    <row r="47" spans="1:34" ht="12" customHeight="1">
+    <row r="47" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="87" spans="11:28" ht="12" customHeight="1">
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="11:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K87" s="19" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="11:28" ht="12" customHeight="1">
+    <row r="88" spans="11:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K88" s="19" t="s">
         <v>252</v>
       </c>
@@ -14316,7 +14919,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="89" spans="11:28" ht="12" customHeight="1">
+    <row r="89" spans="11:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K89" s="19" t="s">
         <v>209</v>
       </c>
@@ -14330,7 +14933,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="11:28" ht="12" customHeight="1">
+    <row r="90" spans="11:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K90" s="19" t="s">
         <v>210</v>
       </c>
@@ -14344,7 +14947,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="11:28" ht="12" customHeight="1">
+    <row r="91" spans="11:28" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K91" s="19" t="s">
         <v>211</v>
       </c>
@@ -14360,20 +14963,80 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="M38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="G44:L44"/>
-    <mergeCell ref="M44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="G39:L39"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="M42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="M40:AA40"/>
-    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="M29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:AA25"/>
+    <mergeCell ref="AB25:AH25"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="M36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:AA34"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="M35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="C17:F20"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="C10:F16"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="M10:AA10"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:AA14"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:AA15"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="M19:AA19"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:AA20"/>
+    <mergeCell ref="C21:F26"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:AA21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:AA24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="M26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
     <mergeCell ref="C38:F44"/>
     <mergeCell ref="G38:L38"/>
     <mergeCell ref="C30:F37"/>
@@ -14398,80 +15061,20 @@
     <mergeCell ref="M39:AA39"/>
     <mergeCell ref="AB39:AH39"/>
     <mergeCell ref="G40:L40"/>
-    <mergeCell ref="C21:F26"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:AA21"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="M22:AA22"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:AA24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="M26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:AA19"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:AA20"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:AA9"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="C10:F16"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="M10:AA10"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:AA14"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:AA15"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="M29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:AA25"/>
-    <mergeCell ref="AB25:AH25"/>
-    <mergeCell ref="G36:L36"/>
-    <mergeCell ref="M36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:AA34"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="M35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="C17:F20"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="M38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="G44:L44"/>
+    <mergeCell ref="M44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="G39:L39"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="M42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="M40:AA40"/>
+    <mergeCell ref="AB40:AH40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14488,7 +15091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14496,7 +15099,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="34" width="5" style="19"/>
     <col min="35" max="35" width="5" style="19" customWidth="1"/>
@@ -14505,12 +15108,12 @@
     <col min="39" max="16384" width="5" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="12" customHeight="1">
+    <row r="1" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="24" customHeight="1">
+    <row r="3" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>193</v>
@@ -14552,7 +15155,7 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
     </row>
-    <row r="4" spans="1:40" ht="24" customHeight="1">
+    <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="49" t="s">
@@ -14564,7 +15167,7 @@
       <c r="AL4" s="4"/>
       <c r="AM4" s="4"/>
     </row>
-    <row r="5" spans="1:40" ht="24" customHeight="1">
+    <row r="5" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="D5" s="13" t="s">
@@ -14606,7 +15209,7 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
     </row>
-    <row r="6" spans="1:40" ht="24" customHeight="1">
+    <row r="6" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="D6" s="15"/>
@@ -14646,7 +15249,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="6"/>
     </row>
-    <row r="7" spans="1:40" ht="24" customHeight="1">
+    <row r="7" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="D7" s="15"/>
@@ -14686,7 +15289,7 @@
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
     </row>
-    <row r="8" spans="1:40" ht="24" customHeight="1">
+    <row r="8" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="D8" s="15"/>
@@ -14726,7 +15329,7 @@
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
     </row>
-    <row r="9" spans="1:40" ht="24" customHeight="1">
+    <row r="9" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="D9" s="15"/>
@@ -14772,7 +15375,7 @@
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
     </row>
-    <row r="10" spans="1:40" ht="24" customHeight="1">
+    <row r="10" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="D10" s="15"/>
@@ -14818,7 +15421,7 @@
       <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
     </row>
-    <row r="11" spans="1:40" ht="24" customHeight="1">
+    <row r="11" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="D11" s="15"/>
@@ -14860,7 +15463,7 @@
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
     </row>
-    <row r="12" spans="1:40" ht="24" customHeight="1">
+    <row r="12" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="D12" s="15"/>
@@ -14899,7 +15502,7 @@
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
     </row>
-    <row r="13" spans="1:40" ht="24" customHeight="1">
+    <row r="13" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="D13" s="15"/>
@@ -14943,7 +15546,7 @@
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
     </row>
-    <row r="14" spans="1:40" ht="24" customHeight="1">
+    <row r="14" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="D14" s="15"/>
@@ -14983,7 +15586,7 @@
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
     </row>
-    <row r="15" spans="1:40" ht="24" customHeight="1">
+    <row r="15" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="D15" s="15"/>
@@ -15075,7 +15678,7 @@
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
     </row>
-    <row r="16" spans="1:40" ht="24" customHeight="1">
+    <row r="16" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="D16" s="15"/>
@@ -15119,7 +15722,7 @@
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
     </row>
-    <row r="17" spans="1:39" ht="24" customHeight="1">
+    <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="D17" s="15"/>
@@ -15161,7 +15764,7 @@
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
     </row>
-    <row r="18" spans="1:39" ht="24" customHeight="1">
+    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="D18" s="15"/>
@@ -15205,7 +15808,7 @@
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
     </row>
-    <row r="19" spans="1:39" ht="24" customHeight="1">
+    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="D19" s="15"/>
@@ -15247,7 +15850,7 @@
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
     </row>
-    <row r="20" spans="1:39" ht="24" customHeight="1">
+    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="D20" s="15"/>
@@ -15289,7 +15892,7 @@
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
     </row>
-    <row r="21" spans="1:39" ht="24" customHeight="1">
+    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -15330,7 +15933,7 @@
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
     </row>
-    <row r="22" spans="1:39" ht="24" customHeight="1">
+    <row r="22" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="49" t="s">
@@ -15375,7 +15978,7 @@
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
     </row>
-    <row r="23" spans="1:39" ht="24" customHeight="1">
+    <row r="23" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -15418,7 +16021,7 @@
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
     </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1">
+    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -15463,7 +16066,7 @@
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
     </row>
-    <row r="25" spans="1:39" ht="24" customHeight="1">
+    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -15508,7 +16111,7 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
     </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1">
+    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -15547,7 +16150,7 @@
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
     </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1">
+    <row r="27" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -15586,7 +16189,7 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
     </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1">
+    <row r="28" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="40"/>
@@ -15629,7 +16232,7 @@
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
     </row>
-    <row r="29" spans="1:39" ht="24" customHeight="1">
+    <row r="29" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="49" t="s">
@@ -15674,7 +16277,7 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
     </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1">
+    <row r="30" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="40"/>
@@ -15717,7 +16320,7 @@
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
     </row>
-    <row r="31" spans="1:39" ht="24" customHeight="1">
+    <row r="31" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="40"/>
@@ -15762,7 +16365,7 @@
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
     </row>
-    <row r="32" spans="1:39" ht="24" customHeight="1">
+    <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="40"/>
@@ -15803,7 +16406,7 @@
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
     </row>
-    <row r="33" spans="1:39" ht="24" customHeight="1">
+    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="40"/>
@@ -15844,7 +16447,7 @@
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
     </row>
-    <row r="34" spans="1:39" ht="24" customHeight="1">
+    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="40"/>
@@ -15885,7 +16488,7 @@
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
     </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1">
+    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="40"/>
@@ -15926,7 +16529,7 @@
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
     </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1">
+    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="40"/>
@@ -15967,7 +16570,7 @@
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
     </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1">
+    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="40"/>
@@ -16008,7 +16611,7 @@
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
     </row>
-    <row r="38" spans="1:39" ht="24" customHeight="1">
+    <row r="38" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="40"/>
@@ -16049,7 +16652,7 @@
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
     </row>
-    <row r="39" spans="1:39" ht="24" customHeight="1">
+    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -16090,7 +16693,7 @@
       <c r="AL39" s="8"/>
       <c r="AM39" s="8"/>
     </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1">
+    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>200</v>
@@ -16133,7 +16736,7 @@
       <c r="AL40" s="8"/>
       <c r="AM40" s="8"/>
     </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1">
+    <row r="41" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="44" t="s">
@@ -16178,7 +16781,7 @@
       <c r="AL41" s="8"/>
       <c r="AM41" s="8"/>
     </row>
-    <row r="42" spans="1:39" ht="24" customHeight="1">
+    <row r="42" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -16221,7 +16824,7 @@
       <c r="AL42" s="8"/>
       <c r="AM42" s="8"/>
     </row>
-    <row r="43" spans="1:39" ht="24" customHeight="1">
+    <row r="43" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -16268,7 +16871,7 @@
       <c r="AL43" s="8"/>
       <c r="AM43" s="8"/>
     </row>
-    <row r="44" spans="1:39" ht="24" customHeight="1">
+    <row r="44" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -16317,7 +16920,7 @@
       <c r="AL44" s="8"/>
       <c r="AM44" s="8"/>
     </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1">
+    <row r="45" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -16358,7 +16961,7 @@
       <c r="AL45" s="8"/>
       <c r="AM45" s="8"/>
     </row>
-    <row r="46" spans="1:39" ht="24" customHeight="1">
+    <row r="46" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="44" t="s">
@@ -16403,7 +17006,7 @@
       <c r="AL46" s="8"/>
       <c r="AM46" s="8"/>
     </row>
-    <row r="47" spans="1:39" ht="24" customHeight="1">
+    <row r="47" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -16446,7 +17049,7 @@
       <c r="AL47" s="8"/>
       <c r="AM47" s="8"/>
     </row>
-    <row r="48" spans="1:39" ht="24" customHeight="1">
+    <row r="48" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -16491,7 +17094,7 @@
       <c r="AL48" s="8"/>
       <c r="AM48" s="8"/>
     </row>
-    <row r="49" spans="1:39" ht="24" customHeight="1">
+    <row r="49" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -16500,7 +17103,7 @@
         <v>205</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -16536,7 +17139,7 @@
       <c r="AL49" s="8"/>
       <c r="AM49" s="8"/>
     </row>
-    <row r="50" spans="1:39" ht="24" customHeight="1">
+    <row r="50" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -16577,7 +17180,7 @@
       <c r="AL50" s="8"/>
       <c r="AM50" s="8"/>
     </row>
-    <row r="51" spans="1:39" ht="24" customHeight="1">
+    <row r="51" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="44" t="s">
@@ -16622,7 +17225,7 @@
       <c r="AL51" s="8"/>
       <c r="AM51" s="8"/>
     </row>
-    <row r="52" spans="1:39" ht="24" customHeight="1">
+    <row r="52" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -16665,7 +17268,7 @@
       <c r="AL52" s="8"/>
       <c r="AM52" s="8"/>
     </row>
-    <row r="53" spans="1:39" ht="24" customHeight="1">
+    <row r="53" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -16710,7 +17313,7 @@
       <c r="AL53" s="8"/>
       <c r="AM53" s="8"/>
     </row>
-    <row r="54" spans="1:39" ht="24" customHeight="1">
+    <row r="54" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -16755,7 +17358,7 @@
       <c r="AL54" s="8"/>
       <c r="AM54" s="8"/>
     </row>
-    <row r="55" spans="1:39" ht="24" customHeight="1">
+    <row r="55" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -16800,7 +17403,7 @@
       <c r="AL55" s="8"/>
       <c r="AM55" s="8"/>
     </row>
-    <row r="56" spans="1:39" ht="24" customHeight="1">
+    <row r="56" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -16841,7 +17444,7 @@
       <c r="AL56" s="8"/>
       <c r="AM56" s="8"/>
     </row>
-    <row r="57" spans="1:39" ht="24" customHeight="1">
+    <row r="57" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -16882,7 +17485,7 @@
       <c r="AL57" s="8"/>
       <c r="AM57" s="8"/>
     </row>
-    <row r="58" spans="1:39" ht="24" customHeight="1">
+    <row r="58" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -16923,7 +17526,7 @@
       <c r="AL58" s="8"/>
       <c r="AM58" s="8"/>
     </row>
-    <row r="59" spans="1:39" ht="24" customHeight="1">
+    <row r="59" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -16964,7 +17567,7 @@
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
     </row>
-    <row r="60" spans="1:39" ht="24" customHeight="1">
+    <row r="60" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -17005,7 +17608,7 @@
       <c r="AL60" s="8"/>
       <c r="AM60" s="8"/>
     </row>
-    <row r="61" spans="1:39" ht="24" customHeight="1">
+    <row r="61" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -17046,7 +17649,7 @@
       <c r="AL61" s="8"/>
       <c r="AM61" s="8"/>
     </row>
-    <row r="62" spans="1:39" ht="24" customHeight="1">
+    <row r="62" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -17087,7 +17690,7 @@
       <c r="AL62" s="8"/>
       <c r="AM62" s="8"/>
     </row>
-    <row r="63" spans="1:39" ht="24" customHeight="1">
+    <row r="63" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -17128,7 +17731,7 @@
       <c r="AL63" s="8"/>
       <c r="AM63" s="8"/>
     </row>
-    <row r="64" spans="1:39" ht="24" customHeight="1">
+    <row r="64" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="48" t="s">
         <v>201</v>
@@ -17173,7 +17776,7 @@
       <c r="AL64" s="8"/>
       <c r="AM64" s="8"/>
     </row>
-    <row r="65" spans="1:39" ht="24" customHeight="1">
+    <row r="65" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="44" t="s">
@@ -17218,7 +17821,7 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
     </row>
-    <row r="66" spans="1:39" ht="24" customHeight="1">
+    <row r="66" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -17261,7 +17864,7 @@
       <c r="AL66" s="8"/>
       <c r="AM66" s="8"/>
     </row>
-    <row r="67" spans="1:39" ht="24" customHeight="1">
+    <row r="67" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -17308,7 +17911,7 @@
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
     </row>
-    <row r="68" spans="1:39" ht="24" customHeight="1">
+    <row r="68" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -17355,7 +17958,7 @@
       <c r="AL68" s="8"/>
       <c r="AM68" s="8"/>
     </row>
-    <row r="69" spans="1:39" ht="24" customHeight="1">
+    <row r="69" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -17400,7 +18003,7 @@
       <c r="AL69" s="8"/>
       <c r="AM69" s="8"/>
     </row>
-    <row r="70" spans="1:39" ht="24" customHeight="1">
+    <row r="70" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -17445,7 +18048,7 @@
       <c r="AL70" s="8"/>
       <c r="AM70" s="8"/>
     </row>
-    <row r="71" spans="1:39" ht="24" customHeight="1">
+    <row r="71" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="44" t="s">
@@ -17490,7 +18093,7 @@
       <c r="AL71" s="8"/>
       <c r="AM71" s="8"/>
     </row>
-    <row r="72" spans="1:39" ht="24" customHeight="1">
+    <row r="72" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="5"/>
       <c r="D72" s="40"/>
       <c r="E72" s="8" t="s">
@@ -17531,11 +18134,11 @@
       <c r="AL72" s="12"/>
       <c r="AM72" s="12"/>
     </row>
-    <row r="73" spans="1:39" ht="24" customHeight="1">
+    <row r="73" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="F73" s="51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G73" s="87"/>
       <c r="H73" s="87"/>
@@ -17575,7 +18178,7 @@
       <c r="AL73" s="17"/>
       <c r="AM73" s="17"/>
     </row>
-    <row r="74" spans="1:39" ht="24" customHeight="1">
+    <row r="74" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="F74" s="52"/>
@@ -17617,7 +18220,7 @@
       <c r="AL74" s="17"/>
       <c r="AM74" s="17"/>
     </row>
-    <row r="75" spans="1:39" ht="24" customHeight="1">
+    <row r="75" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="F75" s="90"/>
@@ -17658,7 +18261,7 @@
       <c r="AL75" s="17"/>
       <c r="AM75" s="17"/>
     </row>
-    <row r="76" spans="1:39" ht="24" customHeight="1">
+    <row r="76" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="F76" s="19" t="s">
@@ -17698,7 +18301,7 @@
       <c r="AL76" s="17"/>
       <c r="AM76" s="17"/>
     </row>
-    <row r="77" spans="1:39" ht="24" customHeight="1">
+    <row r="77" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="F77" s="19" t="s">
@@ -17738,7 +18341,7 @@
       <c r="AL77" s="17"/>
       <c r="AM77" s="17"/>
     </row>
-    <row r="78" spans="1:39" ht="24" customHeight="1">
+    <row r="78" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="38" t="s">
         <v>282</v>
       </c>
@@ -17781,7 +18384,7 @@
       <c r="AL78" s="8"/>
       <c r="AM78" s="8"/>
     </row>
-    <row r="79" spans="1:39" ht="24" customHeight="1">
+    <row r="79" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="40"/>
       <c r="D79" s="40"/>
       <c r="E79" s="49"/>
@@ -17812,7 +18415,7 @@
       <c r="AB79" s="8"/>
       <c r="AC79" s="8"/>
     </row>
-    <row r="80" spans="1:39" ht="24" customHeight="1">
+    <row r="80" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="40"/>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
@@ -17831,7 +18434,7 @@
       <c r="P80" s="40"/>
       <c r="Q80" s="40"/>
     </row>
-    <row r="81" spans="2:17" ht="24" customHeight="1">
+    <row r="81" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="40"/>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
@@ -17850,7 +18453,7 @@
       <c r="P81" s="40"/>
       <c r="Q81" s="40"/>
     </row>
-    <row r="82" spans="2:17" ht="24" customHeight="1">
+    <row r="82" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="44" t="s">
         <v>283</v>
       </c>
@@ -17871,7 +18474,7 @@
       <c r="P82" s="40"/>
       <c r="Q82" s="40"/>
     </row>
-    <row r="83" spans="2:17" ht="24" customHeight="1">
+    <row r="83" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="40"/>
       <c r="D83" s="40" t="s">
         <v>55</v>
@@ -17890,7 +18493,7 @@
       <c r="P83" s="40"/>
       <c r="Q83" s="40"/>
     </row>
-    <row r="84" spans="2:17" ht="24" customHeight="1">
+    <row r="84" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="40"/>
       <c r="D84" s="40"/>
       <c r="E84" s="38" t="s">
@@ -17906,7 +18509,7 @@
       <c r="K84" s="40"/>
       <c r="L84" s="40"/>
     </row>
-    <row r="85" spans="2:17" ht="24" customHeight="1">
+    <row r="85" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="40"/>
       <c r="D85" s="5"/>
       <c r="E85" s="38" t="s">
@@ -17922,7 +18525,7 @@
       <c r="K85" s="40"/>
       <c r="L85" s="40"/>
     </row>
-    <row r="86" spans="2:17" ht="24" customHeight="1">
+    <row r="86" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="40"/>
       <c r="D86" s="5"/>
       <c r="E86" s="38"/>
@@ -17934,7 +18537,7 @@
       <c r="K86" s="40"/>
       <c r="L86" s="40"/>
     </row>
-    <row r="87" spans="2:17" ht="24" customHeight="1">
+    <row r="87" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="40"/>
       <c r="D87" s="5"/>
       <c r="E87" s="38"/>
@@ -17946,7 +18549,7 @@
       <c r="K87" s="40"/>
       <c r="L87" s="40"/>
     </row>
-    <row r="88" spans="2:17" ht="24" customHeight="1">
+    <row r="88" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="40"/>
       <c r="D88" s="5"/>
       <c r="E88" s="38"/>
@@ -17958,7 +18561,7 @@
       <c r="K88" s="40"/>
       <c r="L88" s="40"/>
     </row>
-    <row r="89" spans="2:17" ht="24" customHeight="1">
+    <row r="89" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="40"/>
       <c r="D89" s="5"/>
       <c r="E89" s="38"/>
@@ -17970,7 +18573,7 @@
       <c r="K89" s="40"/>
       <c r="L89" s="40"/>
     </row>
-    <row r="90" spans="2:17" ht="24" customHeight="1">
+    <row r="90" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="40"/>
       <c r="D90" s="5"/>
       <c r="E90" s="38"/>
@@ -17982,7 +18585,7 @@
       <c r="K90" s="40"/>
       <c r="L90" s="40"/>
     </row>
-    <row r="91" spans="2:17" ht="24" customHeight="1">
+    <row r="91" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="40"/>
       <c r="D91" s="5"/>
       <c r="E91" s="38"/>
@@ -17994,7 +18597,7 @@
       <c r="K91" s="40"/>
       <c r="L91" s="40"/>
     </row>
-    <row r="92" spans="2:17" ht="24" customHeight="1">
+    <row r="92" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="40"/>
       <c r="D92" s="5"/>
       <c r="E92" s="38"/>
@@ -18006,7 +18609,7 @@
       <c r="K92" s="40"/>
       <c r="L92" s="40"/>
     </row>
-    <row r="93" spans="2:17" ht="24" customHeight="1">
+    <row r="93" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="19" t="s">
         <v>218</v>
       </c>
@@ -18016,7 +18619,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="2:17" ht="24" customHeight="1">
+    <row r="94" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="49" t="s">
         <v>284</v>
       </c>
@@ -18028,7 +18631,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="2:17" ht="24" customHeight="1">
+    <row r="95" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="5"/>
       <c r="E95" s="39" t="s">
         <v>85</v>
@@ -18039,7 +18642,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="2:17" ht="24" customHeight="1">
+    <row r="96" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="5"/>
       <c r="E96" s="39"/>
       <c r="F96" s="5" t="s">
@@ -18048,7 +18651,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="3:26" ht="24" customHeight="1">
+    <row r="97" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="5"/>
       <c r="E97" s="39"/>
       <c r="F97" s="7" t="s">
@@ -18057,7 +18660,7 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="3:26" ht="24" customHeight="1">
+    <row r="98" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="5"/>
       <c r="E98" s="39" t="s">
         <v>126</v>
@@ -18068,14 +18671,14 @@
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="3:26" ht="24" customHeight="1">
+    <row r="99" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="5"/>
       <c r="E99" s="49"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="3:26" ht="24" customHeight="1">
+    <row r="100" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="49" t="s">
         <v>285</v>
       </c>
@@ -18087,7 +18690,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="3:26" ht="24" customHeight="1">
+    <row r="101" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="5" t="s">
         <v>128</v>
       </c>
@@ -18096,7 +18699,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="3:26" ht="24" customHeight="1">
+    <row r="102" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="5"/>
       <c r="E102" s="39" t="s">
         <v>204</v>
@@ -18113,7 +18716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="3:26" ht="24" customHeight="1">
+    <row r="103" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="5"/>
       <c r="E103" s="39" t="s">
         <v>219</v>
@@ -18130,7 +18733,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="3:26" ht="24" customHeight="1">
+    <row r="104" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="5"/>
       <c r="E104" s="39" t="s">
         <v>220</v>
@@ -18147,14 +18750,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="3:26" ht="24" customHeight="1">
+    <row r="105" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="5"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="3:26" ht="24" customHeight="1">
+    <row r="106" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="49" t="s">
         <v>286</v>
       </c>
@@ -18166,23 +18769,23 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="3:26" ht="24" customHeight="1">
+    <row r="107" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E107" s="39"/>
       <c r="F107" s="5"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="3:26" ht="24" customHeight="1">
+    <row r="108" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="5"/>
       <c r="E108" s="39"/>
       <c r="F108" s="5"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="3:26" ht="24" customHeight="1">
+    <row r="109" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="5"/>
       <c r="E109" s="92" t="s">
         <v>135</v>
@@ -18211,7 +18814,7 @@
       <c r="Y109" s="93"/>
       <c r="Z109" s="94"/>
     </row>
-    <row r="110" spans="3:26" ht="24" customHeight="1">
+    <row r="110" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="5"/>
       <c r="E110" s="95" t="s">
         <v>136</v>
@@ -18240,7 +18843,7 @@
       <c r="Y110" s="96"/>
       <c r="Z110" s="97"/>
     </row>
-    <row r="111" spans="3:26" ht="24" customHeight="1">
+    <row r="111" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="5"/>
       <c r="E111" s="98"/>
       <c r="F111" s="99"/>
@@ -18267,7 +18870,7 @@
       <c r="Y111" s="99"/>
       <c r="Z111" s="100"/>
     </row>
-    <row r="112" spans="3:26" ht="24" customHeight="1">
+    <row r="112" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="5"/>
       <c r="E112" s="101"/>
       <c r="F112" s="102"/>
@@ -18294,7 +18897,7 @@
       <c r="Y112" s="102"/>
       <c r="Z112" s="103"/>
     </row>
-    <row r="113" spans="3:26" ht="24" customHeight="1">
+    <row r="113" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D113" s="5"/>
       <c r="E113" s="95" t="s">
         <v>137</v>
@@ -18323,7 +18926,7 @@
       <c r="Y113" s="96"/>
       <c r="Z113" s="97"/>
     </row>
-    <row r="114" spans="3:26" ht="24" customHeight="1">
+    <row r="114" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="5"/>
       <c r="E114" s="98"/>
       <c r="F114" s="99"/>
@@ -18350,7 +18953,7 @@
       <c r="Y114" s="99"/>
       <c r="Z114" s="100"/>
     </row>
-    <row r="115" spans="3:26" ht="24" customHeight="1">
+    <row r="115" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="5"/>
       <c r="E115" s="101"/>
       <c r="F115" s="102"/>
@@ -18377,7 +18980,7 @@
       <c r="Y115" s="102"/>
       <c r="Z115" s="103"/>
     </row>
-    <row r="116" spans="3:26" ht="24" customHeight="1">
+    <row r="116" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="5"/>
       <c r="E116" s="95" t="s">
         <v>138</v>
@@ -18406,7 +19009,7 @@
       <c r="Y116" s="96"/>
       <c r="Z116" s="97"/>
     </row>
-    <row r="117" spans="3:26" ht="24" customHeight="1">
+    <row r="117" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="5"/>
       <c r="E117" s="98"/>
       <c r="F117" s="99"/>
@@ -18433,7 +19036,7 @@
       <c r="Y117" s="99"/>
       <c r="Z117" s="100"/>
     </row>
-    <row r="118" spans="3:26" ht="24" customHeight="1">
+    <row r="118" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D118" s="5"/>
       <c r="E118" s="101"/>
       <c r="F118" s="102"/>
@@ -18460,7 +19063,7 @@
       <c r="Y118" s="102"/>
       <c r="Z118" s="103"/>
     </row>
-    <row r="119" spans="3:26" ht="24" customHeight="1">
+    <row r="119" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="5"/>
       <c r="E119" s="95" t="s">
         <v>139</v>
@@ -18489,7 +19092,7 @@
       <c r="Y119" s="96"/>
       <c r="Z119" s="97"/>
     </row>
-    <row r="120" spans="3:26" ht="24" customHeight="1">
+    <row r="120" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="5"/>
       <c r="E120" s="98"/>
       <c r="F120" s="99"/>
@@ -18516,7 +19119,7 @@
       <c r="Y120" s="99"/>
       <c r="Z120" s="100"/>
     </row>
-    <row r="121" spans="3:26" ht="24" customHeight="1">
+    <row r="121" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="5"/>
       <c r="E121" s="101"/>
       <c r="F121" s="102"/>
@@ -18543,7 +19146,7 @@
       <c r="Y121" s="102"/>
       <c r="Z121" s="103"/>
     </row>
-    <row r="122" spans="3:26" ht="24" customHeight="1">
+    <row r="122" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="5"/>
       <c r="E122" s="104"/>
       <c r="F122" s="104"/>
@@ -18552,7 +19155,7 @@
       <c r="I122" s="104"/>
       <c r="J122" s="104"/>
     </row>
-    <row r="123" spans="3:26" ht="24" customHeight="1">
+    <row r="123" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="49" t="s">
         <v>287</v>
       </c>
@@ -18564,7 +19167,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="3:26" ht="24" customHeight="1">
+    <row r="124" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="40" t="s">
         <v>270</v>
       </c>
@@ -18573,77 +19176,77 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="3:26" ht="24" customHeight="1">
+    <row r="125" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D125" s="5"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="3:26" ht="24" customHeight="1">
+    <row r="126" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="5"/>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="3:26" ht="24" customHeight="1">
+    <row r="127" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="5"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="3:26" ht="24" customHeight="1">
+    <row r="128" spans="3:26" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="5"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="3:31" ht="24" customHeight="1">
+    <row r="129" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="5"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="3:31" ht="24" customHeight="1">
+    <row r="130" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="5"/>
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="3:31" ht="24" customHeight="1">
+    <row r="131" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="5"/>
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="3:31" ht="24" customHeight="1">
+    <row r="132" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="5"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="3:31" ht="24" customHeight="1">
+    <row r="133" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="5"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="3:31" ht="24" customHeight="1">
+    <row r="134" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D134" s="5"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="3:31" ht="24" customHeight="1">
+    <row r="135" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="49" t="s">
         <v>288</v>
       </c>
@@ -18655,7 +19258,7 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="3:31" ht="24" customHeight="1">
+    <row r="136" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D136" s="40" t="s">
         <v>58</v>
       </c>
@@ -18687,7 +19290,7 @@
       <c r="AD136" s="40"/>
       <c r="AE136" s="40"/>
     </row>
-    <row r="137" spans="3:31" ht="24" customHeight="1">
+    <row r="137" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D137" s="40"/>
       <c r="E137" s="38" t="s">
         <v>204</v>
@@ -18717,7 +19320,7 @@
       <c r="AD137" s="40"/>
       <c r="AE137" s="40"/>
     </row>
-    <row r="138" spans="3:31" ht="24" customHeight="1">
+    <row r="138" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D138" s="40"/>
       <c r="E138" s="38" t="s">
         <v>205</v>
@@ -18747,7 +19350,7 @@
       <c r="AD138" s="40"/>
       <c r="AE138" s="40"/>
     </row>
-    <row r="139" spans="3:31" ht="24" customHeight="1">
+    <row r="139" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D139" s="40"/>
       <c r="E139" s="38" t="s">
         <v>220</v>
@@ -18777,7 +19380,7 @@
       <c r="AD139" s="40"/>
       <c r="AE139" s="40"/>
     </row>
-    <row r="140" spans="3:31" ht="24" customHeight="1">
+    <row r="140" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D140" s="40"/>
       <c r="E140" s="38" t="s">
         <v>225</v>
@@ -18807,7 +19410,7 @@
       <c r="AD140" s="40"/>
       <c r="AE140" s="40"/>
     </row>
-    <row r="141" spans="3:31" ht="24" customHeight="1">
+    <row r="141" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D141" s="40"/>
       <c r="E141" s="38"/>
       <c r="F141" s="105"/>
@@ -18829,7 +19432,7 @@
       <c r="AD141" s="40"/>
       <c r="AE141" s="40"/>
     </row>
-    <row r="142" spans="3:31" ht="24" customHeight="1">
+    <row r="142" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D142" s="40"/>
       <c r="E142" s="38"/>
       <c r="F142" s="105"/>
@@ -18851,21 +19454,21 @@
       <c r="AD142" s="40"/>
       <c r="AE142" s="40"/>
     </row>
-    <row r="143" spans="3:31" ht="24" customHeight="1">
+    <row r="143" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D143" s="5"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="3:31" ht="24" customHeight="1">
+    <row r="144" spans="3:31" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D144" s="5"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="3:25" ht="24" customHeight="1">
+    <row r="145" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="49" t="s">
         <v>289</v>
       </c>
@@ -18877,7 +19480,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="3:25" ht="24" customHeight="1">
+    <row r="146" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D146" s="40" t="s">
         <v>229</v>
       </c>
@@ -18903,7 +19506,7 @@
       <c r="X146" s="40"/>
       <c r="Y146" s="40"/>
     </row>
-    <row r="147" spans="3:25" ht="24" customHeight="1">
+    <row r="147" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D147" s="40"/>
       <c r="E147" s="38" t="s">
         <v>59</v>
@@ -18937,7 +19540,7 @@
       <c r="X147" s="40"/>
       <c r="Y147" s="40"/>
     </row>
-    <row r="148" spans="3:25" ht="24" customHeight="1">
+    <row r="148" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D148" s="40"/>
       <c r="E148" s="38"/>
       <c r="F148" s="105"/>
@@ -18965,7 +19568,7 @@
       <c r="X148" s="40"/>
       <c r="Y148" s="40"/>
     </row>
-    <row r="149" spans="3:25" ht="24" customHeight="1">
+    <row r="149" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D149" s="40"/>
       <c r="E149" s="38"/>
       <c r="F149" s="105"/>
@@ -18993,7 +19596,7 @@
       <c r="X149" s="40"/>
       <c r="Y149" s="40"/>
     </row>
-    <row r="150" spans="3:25" ht="24" customHeight="1">
+    <row r="150" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D150" s="40"/>
       <c r="E150" s="38" t="s">
         <v>44</v>
@@ -19025,7 +19628,7 @@
       <c r="X150" s="40"/>
       <c r="Y150" s="40"/>
     </row>
-    <row r="151" spans="3:25" ht="24" customHeight="1">
+    <row r="151" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D151" s="40"/>
       <c r="E151" s="38"/>
       <c r="F151" s="105"/>
@@ -19051,7 +19654,7 @@
       <c r="X151" s="40"/>
       <c r="Y151" s="40"/>
     </row>
-    <row r="152" spans="3:25" ht="24" customHeight="1">
+    <row r="152" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D152" s="40"/>
       <c r="E152" s="38"/>
       <c r="F152" s="105"/>
@@ -19077,7 +19680,7 @@
       <c r="X152" s="40"/>
       <c r="Y152" s="40"/>
     </row>
-    <row r="153" spans="3:25" ht="24" customHeight="1">
+    <row r="153" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D153" s="5"/>
       <c r="E153" s="38" t="s">
         <v>66</v>
@@ -19091,7 +19694,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="154" spans="3:25" ht="24" customHeight="1">
+    <row r="154" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="49" t="s">
         <v>290</v>
       </c>
@@ -19103,7 +19706,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="3:25" ht="24" customHeight="1">
+    <row r="155" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D155" s="40" t="s">
         <v>68</v>
       </c>
@@ -19112,7 +19715,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="3:25" ht="24" customHeight="1">
+    <row r="156" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D156" s="5"/>
       <c r="E156" s="50" t="s">
         <v>198</v>
@@ -19123,7 +19726,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="3:25" ht="24" customHeight="1">
+    <row r="157" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D157" s="5"/>
       <c r="E157" s="50"/>
       <c r="F157" s="40" t="s">
@@ -19132,7 +19735,7 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="3:25" ht="24" customHeight="1">
+    <row r="158" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D158" s="5"/>
       <c r="E158" s="50"/>
       <c r="F158" s="40" t="s">
@@ -19141,7 +19744,7 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="3:25" ht="24" customHeight="1">
+    <row r="159" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D159" s="5"/>
       <c r="E159" s="50"/>
       <c r="F159" s="40" t="s">
@@ -19150,7 +19753,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="3:25" ht="24" customHeight="1">
+    <row r="160" spans="3:25" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D160" s="5"/>
       <c r="E160" s="50"/>
       <c r="F160" s="40" t="s">
@@ -19159,7 +19762,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="2:8" ht="24" customHeight="1">
+    <row r="161" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D161" s="5"/>
       <c r="E161" s="50" t="s">
         <v>202</v>
@@ -19170,7 +19773,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="2:8" ht="24" customHeight="1">
+    <row r="162" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D162" s="5"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
@@ -19179,14 +19782,14 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="2:8" ht="24" customHeight="1">
+    <row r="163" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D163" s="5"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="2:8" ht="24" customHeight="1">
+    <row r="164" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B164" s="49" t="s">
         <v>241</v>
       </c>
@@ -19196,7 +19799,7 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="2:8" ht="24" customHeight="1">
+    <row r="165" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="49" t="s">
         <v>291</v>
       </c>
@@ -19208,7 +19811,7 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="2:8" ht="24" customHeight="1">
+    <row r="166" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D166" s="5"/>
       <c r="E166" s="39" t="s">
         <v>297</v>
@@ -19217,7 +19820,7 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="2:8" ht="24" customHeight="1">
+    <row r="167" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D167" s="5"/>
       <c r="E167" s="7" t="s">
         <v>242</v>
@@ -19226,14 +19829,14 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="2:8" ht="24" customHeight="1">
+    <row r="168" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D168" s="5"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="2:8" ht="24" customHeight="1">
+    <row r="169" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="49" t="s">
         <v>292</v>
       </c>
@@ -19245,7 +19848,7 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="2:8" ht="24" customHeight="1">
+    <row r="170" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D170" s="5"/>
       <c r="E170" s="40" t="s">
         <v>69</v>
@@ -19254,14 +19857,14 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="2:8" ht="24" customHeight="1">
+    <row r="171" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D171" s="5"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="2:8" ht="24" customHeight="1">
+    <row r="172" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="49" t="s">
         <v>293</v>
       </c>
@@ -19273,7 +19876,7 @@
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="2:8" ht="24" customHeight="1">
+    <row r="173" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D173" s="5"/>
       <c r="E173" s="7" t="s">
         <v>243</v>
@@ -19282,7 +19885,7 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="2:8" ht="24" customHeight="1">
+    <row r="174" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D174" s="5"/>
       <c r="E174" s="7" t="s">
         <v>245</v>
@@ -19291,14 +19894,14 @@
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="2:8" ht="24" customHeight="1">
+    <row r="175" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D175" s="5"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="2:8" ht="24" customHeight="1">
+    <row r="176" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="49" t="s">
         <v>294</v>
       </c>
@@ -19310,7 +19913,7 @@
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="3:8" ht="24" customHeight="1">
+    <row r="177" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D177" s="5"/>
       <c r="E177" s="50" t="s">
         <v>271</v>
@@ -19319,7 +19922,7 @@
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="3:8" ht="24" customHeight="1">
+    <row r="178" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D178" s="5"/>
       <c r="E178" s="7" t="s">
         <v>248</v>
@@ -19328,7 +19931,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="3:8" ht="24" customHeight="1">
+    <row r="179" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D179" s="5"/>
       <c r="E179" s="7" t="s">
         <v>246</v>
@@ -19337,14 +19940,14 @@
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="3:8" ht="24" customHeight="1">
+    <row r="180" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D180" s="5"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="3:8" ht="24" customHeight="1">
+    <row r="181" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="49" t="s">
         <v>295</v>
       </c>
@@ -19356,7 +19959,7 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="3:8" ht="24" customHeight="1">
+    <row r="182" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D182" s="5"/>
       <c r="E182" s="50" t="s">
         <v>244</v>
@@ -19365,7 +19968,7 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="3:8" ht="24" customHeight="1">
+    <row r="183" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D183" s="5"/>
       <c r="E183" s="7" t="s">
         <v>250</v>
@@ -19374,14 +19977,14 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="3:8" ht="24" customHeight="1">
+    <row r="184" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D184" s="5"/>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="3:8" ht="24" customHeight="1">
+    <row r="185" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="49" t="s">
         <v>296</v>
       </c>
@@ -19393,7 +19996,7 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="3:8" ht="24" customHeight="1">
+    <row r="186" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D186" s="5"/>
       <c r="E186" s="50" t="s">
         <v>272</v>
@@ -19402,7 +20005,7 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="3:8" ht="24" customHeight="1">
+    <row r="187" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D187" s="5"/>
       <c r="E187" s="7" t="s">
         <v>247</v>
@@ -19411,7 +20014,7 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="3:8" ht="24" customHeight="1">
+    <row r="188" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D188" s="5"/>
       <c r="E188" s="7" t="s">
         <v>249</v>
@@ -19420,14 +20023,14 @@
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="3:8" ht="24" customHeight="1">
+    <row r="189" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D189" s="5"/>
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="3:8" ht="24" customHeight="1">
+    <row r="190" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C190" s="49" t="s">
         <v>298</v>
       </c>
@@ -19439,7 +20042,7 @@
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="3:8" ht="24" customHeight="1">
+    <row r="191" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D191" s="5"/>
       <c r="E191" s="50" t="s">
         <v>251</v>
@@ -19448,23 +20051,23 @@
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="3:8" ht="24" customHeight="1"/>
-    <row r="193" spans="3:3" ht="24" customHeight="1">
+    <row r="192" spans="3:8" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C193" s="19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="227" ht="24" customHeight="1"/>
-    <row r="228" ht="24" customHeight="1"/>
-    <row r="229" ht="24" customHeight="1"/>
-    <row r="230" ht="24" customHeight="1"/>
-    <row r="231" ht="24" customHeight="1"/>
-    <row r="232" ht="24" customHeight="1"/>
-    <row r="233" ht="24" customHeight="1"/>
-    <row r="234" ht="24" customHeight="1"/>
-    <row r="235" ht="24" customHeight="1"/>
-    <row r="236" ht="24" customHeight="1"/>
-    <row r="237" ht="24" customHeight="1"/>
+    <row r="227" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="O67:R67"/>
